--- a/Impact_Missing_on_Aggregate_Insights/raw_results/db_missing_zipf_measure3.xlsx
+++ b/Impact_Missing_on_Aggregate_Insights/raw_results/db_missing_zipf_measure3.xlsx
@@ -34,40 +34,40 @@
     <t>readmitted</t>
   </si>
   <si>
-    <t>diag_1</t>
+    <t>age</t>
+  </si>
+  <si>
+    <t>race</t>
+  </si>
+  <si>
+    <t>max_glu_serum</t>
+  </si>
+  <si>
+    <t>admission_source_id</t>
+  </si>
+  <si>
+    <t>diabetesmed</t>
   </si>
   <si>
     <t>a1cresult</t>
   </si>
   <si>
+    <t>admission_type_id</t>
+  </si>
+  <si>
+    <t>discharge_disposition_id</t>
+  </si>
+  <si>
     <t>gender</t>
   </si>
   <si>
-    <t>age</t>
+    <t>diag_1</t>
   </si>
   <si>
     <t>insulin</t>
   </si>
   <si>
-    <t>race</t>
-  </si>
-  <si>
-    <t>admission_source_id</t>
-  </si>
-  <si>
-    <t>discharge_disposition_id</t>
-  </si>
-  <si>
-    <t>max_glu_serum</t>
-  </si>
-  <si>
-    <t>admission_type_id</t>
-  </si>
-  <si>
     <t>change</t>
-  </si>
-  <si>
-    <t>diabetesmed</t>
   </si>
   <si>
     <t>number_emergency</t>
@@ -82,25 +82,25 @@
     <t>time_in_hospital</t>
   </si>
   <si>
-    <t>num_lab_procedures</t>
-  </si>
-  <si>
     <t>num_medications</t>
   </si>
   <si>
     <t>number_diagnoses</t>
   </si>
   <si>
+    <t>num_lab_procedures</t>
+  </si>
+  <si>
     <t>num_procedures</t>
+  </si>
+  <si>
+    <t>max</t>
   </si>
   <si>
     <t>avg</t>
   </si>
   <si>
     <t>sum</t>
-  </si>
-  <si>
-    <t>max</t>
   </si>
   <si>
     <t>count</t>
@@ -498,7 +498,7 @@
         <v>26</v>
       </c>
       <c r="E2">
-        <v>1.305317103307324</v>
+        <v>1.325178312898158</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -509,13 +509,13 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3">
-        <v>1.294807533224215</v>
+        <v>1.314731493983335</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -526,13 +526,13 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4">
-        <v>1.233334677841074</v>
+        <v>1.295633823458986</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -543,13 +543,13 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
         <v>27</v>
       </c>
       <c r="E5">
-        <v>1.182046192659588</v>
+        <v>1.24672916386163</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -560,13 +560,13 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
         <v>28</v>
       </c>
       <c r="E6">
-        <v>1.171558372258012</v>
+        <v>1.203399002559207</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -577,13 +577,13 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
         <v>26</v>
       </c>
       <c r="E7">
-        <v>1.170045601283877</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -594,13 +594,13 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E8">
-        <v>1.168970549927097</v>
+        <v>1.17032437578654</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -611,13 +611,13 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
         <v>26</v>
       </c>
       <c r="E9">
-        <v>1.165189815537439</v>
+        <v>1.16619037896906</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -628,13 +628,13 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E10">
-        <v>1.164593575363066</v>
+        <v>1.164740703127489</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -645,13 +645,13 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11">
-        <v>1.161871278786305</v>
+        <v>1.164397334768464</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -662,13 +662,13 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
       </c>
       <c r="E12">
-        <v>1.158903169100154</v>
+        <v>1.161830984175464</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -679,13 +679,13 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E13">
-        <v>1.154700538379251</v>
+        <v>1.161394510621746</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -696,13 +696,13 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D14" t="s">
         <v>28</v>
       </c>
       <c r="E14">
-        <v>1.154700538379251</v>
+        <v>1.160770886285858</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -713,10 +713,10 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E15">
         <v>1.154700538379251</v>
@@ -730,13 +730,13 @@
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E16">
-        <v>1.145881092548817</v>
+        <v>1.154700538379251</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -747,13 +747,13 @@
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D17" t="s">
         <v>26</v>
       </c>
       <c r="E17">
-        <v>1.129900018701881</v>
+        <v>1.154700538379251</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -764,13 +764,13 @@
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E18">
-        <v>1.121486495131746</v>
+        <v>1.133608342110787</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -781,13 +781,13 @@
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E19">
-        <v>1.109400392450458</v>
+        <v>1.133251818935693</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -801,10 +801,10 @@
         <v>20</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E20">
-        <v>1.089451987364517</v>
+        <v>1.109947675719377</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -818,10 +818,10 @@
         <v>21</v>
       </c>
       <c r="D21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E21">
-        <v>0.9819145072815303</v>
+        <v>0.9821840711340559</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -832,13 +832,13 @@
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E22">
-        <v>0.9779573972461455</v>
+        <v>0.9784227860220359</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -849,13 +849,13 @@
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E23">
-        <v>0.9765577659131907</v>
+        <v>0.9777418784315102</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -866,13 +866,13 @@
         <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E24">
-        <v>0.9741785023309955</v>
+        <v>0.9741529149613571</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -883,13 +883,13 @@
         <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D25" t="s">
         <v>29</v>
       </c>
       <c r="E25">
-        <v>0.9671327244541864</v>
+        <v>0.9716192966670113</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -900,13 +900,13 @@
         <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D26" t="s">
         <v>29</v>
       </c>
       <c r="E26">
-        <v>0.9657358114877638</v>
+        <v>0.9666869934574848</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -917,13 +917,13 @@
         <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D27" t="s">
         <v>29</v>
       </c>
       <c r="E27">
-        <v>0.965462403130333</v>
+        <v>0.9665236263262303</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -934,13 +934,13 @@
         <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D28" t="s">
         <v>29</v>
       </c>
       <c r="E28">
-        <v>0.9653358126461359</v>
+        <v>0.9658715788416745</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -951,13 +951,13 @@
         <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D29" t="s">
         <v>29</v>
       </c>
       <c r="E29">
-        <v>0.9651067800030334</v>
+        <v>0.9656706048962704</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -974,7 +974,7 @@
         <v>29</v>
       </c>
       <c r="E30">
-        <v>0.9650895703018795</v>
+        <v>0.9652828868819442</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -985,13 +985,13 @@
         <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D31" t="s">
         <v>29</v>
       </c>
       <c r="E31">
-        <v>0.9650598127411615</v>
+        <v>0.9650011004492345</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1002,13 +1002,13 @@
         <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D32" t="s">
         <v>29</v>
       </c>
       <c r="E32">
-        <v>0.9650543448407746</v>
+        <v>0.9614218853381585</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1022,10 +1022,10 @@
         <v>25</v>
       </c>
       <c r="D33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E33">
-        <v>0.931977304114688</v>
+        <v>0.9359001631182159</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1039,10 +1039,10 @@
         <v>18</v>
       </c>
       <c r="D34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E34">
-        <v>0.8058229640253803</v>
+        <v>0.695741874070145</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1050,16 +1050,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C35" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D35" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E35">
-        <v>0.787183663231218</v>
+        <v>0.6411396073916968</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1067,16 +1067,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C36" t="s">
         <v>18</v>
       </c>
       <c r="D36" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E36">
-        <v>0.7764257076067382</v>
+        <v>0.6158090444454184</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1084,16 +1084,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
         <v>18</v>
       </c>
       <c r="D37" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E37">
-        <v>0.722818123532759</v>
+        <v>0.6112498455021266</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1101,16 +1101,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C38" t="s">
         <v>18</v>
       </c>
       <c r="D38" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E38">
-        <v>0.7223330649006575</v>
+        <v>0.5888575776478101</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1118,16 +1118,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
         <v>20</v>
       </c>
       <c r="D39" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E39">
-        <v>0.6933437989790969</v>
+        <v>0.5668041710553936</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1135,16 +1135,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D40" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E40">
-        <v>0.6926745121613612</v>
+        <v>0.5342794638150949</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1152,16 +1152,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C41" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D41" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E41">
-        <v>0.6522464453145187</v>
+        <v>0.5249854817969359</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1169,16 +1169,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D42" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E42">
-        <v>0.6377761739513912</v>
+        <v>0.5223093121358834</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1186,16 +1186,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C43" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D43" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E43">
-        <v>0.6243905410544627</v>
+        <v>0.5202570762502424</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1203,16 +1203,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C44" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D44" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E44">
-        <v>0.610934551660669</v>
+        <v>0.519980132481952</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1220,16 +1220,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C45" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E45">
-        <v>0.6036882088384271</v>
+        <v>0.5166859625882102</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1237,16 +1237,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C46" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D46" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E46">
-        <v>0.6022326165081496</v>
+        <v>0.512989176042577</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1254,7 +1254,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C47" t="s">
         <v>18</v>
@@ -1263,7 +1263,7 @@
         <v>26</v>
       </c>
       <c r="E47">
-        <v>0.5666561873691794</v>
+        <v>0.512989176042577</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1271,16 +1271,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C48" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D48" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E48">
-        <v>0.5386881488986639</v>
+        <v>0.512989176042577</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1288,16 +1288,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C49" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D49" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E49">
-        <v>0.5319167748334775</v>
+        <v>0.512989176042577</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1308,13 +1308,13 @@
         <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D50" t="s">
         <v>26</v>
       </c>
       <c r="E50">
-        <v>0.5182384259276192</v>
+        <v>0.5075192189225523</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1322,16 +1322,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D51" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E51">
-        <v>0.5030519103331146</v>
+        <v>0.5061710682435311</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1339,7 +1339,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C52" t="s">
         <v>18</v>
@@ -1348,7 +1348,7 @@
         <v>28</v>
       </c>
       <c r="E52">
-        <v>0.5010748847948443</v>
+        <v>0.5057210305398737</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1359,13 +1359,13 @@
         <v>16</v>
       </c>
       <c r="C53" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D53" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E53">
-        <v>0.5010748847948443</v>
+        <v>0.5028316003944989</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1373,7 +1373,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C54" t="s">
         <v>18</v>
@@ -1382,7 +1382,7 @@
         <v>26</v>
       </c>
       <c r="E54">
-        <v>0.4944824752488951</v>
+        <v>0.5020416581459268</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1390,16 +1390,16 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C55" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D55" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E55">
-        <v>0.4771187236136979</v>
+        <v>0.4809674524810216</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1407,16 +1407,16 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C56" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D56" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E56">
-        <v>0.4659216113122016</v>
+        <v>0.4644203640128239</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1424,7 +1424,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C57" t="s">
         <v>18</v>
@@ -1433,7 +1433,7 @@
         <v>27</v>
       </c>
       <c r="E57">
-        <v>0.4562822388617383</v>
+        <v>0.4623170552100829</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1441,16 +1441,16 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C58" t="s">
         <v>18</v>
       </c>
       <c r="D58" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E58">
-        <v>0.4478059265936082</v>
+        <v>0.4476972718212893</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1458,16 +1458,16 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D59" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E59">
-        <v>0.4370483222197017</v>
+        <v>0.4408679817624555</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1475,16 +1475,16 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C60" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D60" t="s">
         <v>28</v>
       </c>
       <c r="E60">
-        <v>0.4339554696137291</v>
+        <v>0.4338090254261972</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1492,16 +1492,16 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C61" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D61" t="s">
         <v>28</v>
       </c>
       <c r="E61">
-        <v>0.4337580440494675</v>
+        <v>0.4332553612770044</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1509,16 +1509,16 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C62" t="s">
         <v>18</v>
       </c>
       <c r="D62" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E62">
-        <v>0.4217526906619643</v>
+        <v>0.431492973507317</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1526,7 +1526,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C63" t="s">
         <v>18</v>
@@ -1535,7 +1535,7 @@
         <v>26</v>
       </c>
       <c r="E63">
-        <v>0.4201771225640307</v>
+        <v>0.431492973507317</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1543,16 +1543,16 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C64" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D64" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E64">
-        <v>0.4178799539508668</v>
+        <v>0.4107564154517241</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1560,7 +1560,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C65" t="s">
         <v>19</v>
@@ -1569,7 +1569,7 @@
         <v>28</v>
       </c>
       <c r="E65">
-        <v>0.408248290463863</v>
+        <v>0.4071546304896869</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1577,16 +1577,16 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C66" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D66" t="s">
         <v>26</v>
       </c>
       <c r="E66">
-        <v>0.4066673852643763</v>
+        <v>0.4051902077760665</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1594,16 +1594,16 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C67" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D67" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E67">
-        <v>0.395050535765151</v>
+        <v>0.4051902077760665</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1611,16 +1611,16 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C68" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D68" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E68">
-        <v>0.3877289007952465</v>
+        <v>0.4028297472553804</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1628,16 +1628,16 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C69" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D69" t="s">
         <v>26</v>
       </c>
       <c r="E69">
-        <v>0.3840458518927196</v>
+        <v>0.4028297472553804</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1645,16 +1645,16 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C70" t="s">
         <v>19</v>
       </c>
       <c r="D70" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E70">
-        <v>0.3801957624005716</v>
+        <v>0.4028297472553804</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1662,16 +1662,16 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C71" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D71" t="s">
         <v>26</v>
       </c>
       <c r="E71">
-        <v>0.3791901671870954</v>
+        <v>0.3912303982179757</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1679,16 +1679,16 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C72" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D72" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E72">
-        <v>0.3775926436294902</v>
+        <v>0.3901491605162816</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1702,10 +1702,10 @@
         <v>19</v>
       </c>
       <c r="D73" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E73">
-        <v>0.3750493000146168</v>
+        <v>0.3800360674489124</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1713,16 +1713,16 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C74" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D74" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E74">
-        <v>0.3717607458773523</v>
+        <v>0.3787448409607675</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1730,16 +1730,16 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D75" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E75">
-        <v>0.362798163217307</v>
+        <v>0.3786265001585986</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1747,16 +1747,16 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C76" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D76" t="s">
         <v>27</v>
       </c>
       <c r="E76">
-        <v>0.3600118433800232</v>
+        <v>0.3742244725369755</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1764,16 +1764,16 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C77" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D77" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E77">
-        <v>0.3504975479959617</v>
+        <v>0.3732495913263369</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1781,16 +1781,16 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C78" t="s">
         <v>19</v>
       </c>
       <c r="D78" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E78">
-        <v>0.340338237390564</v>
+        <v>0.3644674417131569</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1798,16 +1798,16 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C79" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D79" t="s">
         <v>28</v>
       </c>
       <c r="E79">
-        <v>0.340338237390564</v>
+        <v>0.3589454348523625</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1815,7 +1815,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C80" t="s">
         <v>19</v>
@@ -1824,7 +1824,7 @@
         <v>28</v>
       </c>
       <c r="E80">
-        <v>0.340338237390564</v>
+        <v>0.3585539923827415</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1832,16 +1832,16 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D81" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E81">
-        <v>0.3233783728833501</v>
+        <v>0.3413667256933589</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1849,16 +1849,16 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
         <v>18</v>
       </c>
       <c r="D82" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E82">
-        <v>0.3139296172306984</v>
+        <v>0.3385660400992764</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1866,16 +1866,16 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C83" t="s">
         <v>20</v>
       </c>
       <c r="D83" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E83">
-        <v>0.308029990491665</v>
+        <v>0.3286273792429389</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1883,16 +1883,16 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D84" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E84">
-        <v>0.2995135792209535</v>
+        <v>0.327617720080355</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1900,16 +1900,16 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D85" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E85">
-        <v>0.2918778816024995</v>
+        <v>0.3226706839917513</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -1917,16 +1917,16 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C86" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D86" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E86">
-        <v>0.2909872894246572</v>
+        <v>0.3155060584970251</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -1934,16 +1934,16 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C87" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D87" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E87">
-        <v>0.2894770618451868</v>
+        <v>0.3084398403824238</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1951,16 +1951,16 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C88" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D88" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E88">
-        <v>0.2883176466666268</v>
+        <v>0.3084398403824238</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1968,16 +1968,16 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
         <v>19</v>
       </c>
       <c r="D89" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E89">
-        <v>0.2802646366418287</v>
+        <v>0.3022564598665681</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1985,16 +1985,16 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C90" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D90" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E90">
-        <v>0.2782337000800493</v>
+        <v>0.3018861847329998</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2002,16 +2002,16 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D91" t="s">
         <v>28</v>
       </c>
       <c r="E91">
-        <v>0.2756917866964173</v>
+        <v>0.2940263564111211</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2019,7 +2019,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C92" t="s">
         <v>19</v>
@@ -2028,7 +2028,7 @@
         <v>27</v>
       </c>
       <c r="E92">
-        <v>0.2717223520241585</v>
+        <v>0.2935623559452845</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2036,16 +2036,16 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C93" t="s">
         <v>20</v>
       </c>
       <c r="D93" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E93">
-        <v>0.2688702518697341</v>
+        <v>0.2931092754391657</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2053,16 +2053,16 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D94" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E94">
-        <v>0.2664955767705752</v>
+        <v>0.2801378765933465</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2070,7 +2070,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
         <v>18</v>
@@ -2079,7 +2079,7 @@
         <v>29</v>
       </c>
       <c r="E95">
-        <v>0.2638814450201745</v>
+        <v>0.2772002086276051</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2087,16 +2087,16 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C96" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D96" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E96">
-        <v>0.2631977307288494</v>
+        <v>0.2749666069455468</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2104,16 +2104,16 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C97" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D97" t="s">
         <v>27</v>
       </c>
       <c r="E97">
-        <v>0.2626492076938466</v>
+        <v>0.2734953050238264</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2121,16 +2121,16 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C98" t="s">
         <v>19</v>
       </c>
       <c r="D98" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E98">
-        <v>0.2625926801312369</v>
+        <v>0.2720298622733934</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2138,16 +2138,16 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D99" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E99">
-        <v>0.2619402852131756</v>
+        <v>0.2685384948444853</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2155,16 +2155,16 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C100" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D100" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E100">
-        <v>0.2577366077054654</v>
+        <v>0.2629126849629871</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2175,13 +2175,13 @@
         <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D101" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E101">
-        <v>0.2565721267063714</v>
+        <v>0.2597045917326642</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2189,16 +2189,16 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D102" t="s">
         <v>29</v>
       </c>
       <c r="E102">
-        <v>0.2563489851622016</v>
+        <v>0.2595454489541078</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2206,16 +2206,16 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D103" t="s">
         <v>29</v>
       </c>
       <c r="E103">
-        <v>0.2560940227532292</v>
+        <v>0.2590979509132189</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2223,16 +2223,16 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D104" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E104">
-        <v>0.2556770973715203</v>
+        <v>0.2578278074151249</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2240,16 +2240,16 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D105" t="s">
         <v>29</v>
       </c>
       <c r="E105">
-        <v>0.2550201356903478</v>
+        <v>0.2574952508222437</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2257,16 +2257,16 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C106" t="s">
         <v>20</v>
       </c>
       <c r="D106" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E106">
-        <v>0.2525327376461639</v>
+        <v>0.2564897564761561</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2277,13 +2277,13 @@
         <v>12</v>
       </c>
       <c r="C107" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D107" t="s">
         <v>27</v>
       </c>
       <c r="E107">
-        <v>0.2524767362069783</v>
+        <v>0.2563460905304109</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2291,16 +2291,16 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D108" t="s">
         <v>29</v>
       </c>
       <c r="E108">
-        <v>0.2507251144168016</v>
+        <v>0.2560980705699754</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2311,13 +2311,13 @@
         <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D109" t="s">
         <v>27</v>
       </c>
       <c r="E109">
-        <v>0.249235175456666</v>
+        <v>0.2540264417923628</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2325,16 +2325,16 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D110" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E110">
-        <v>0.2437073380836521</v>
+        <v>0.2502434632613037</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2342,16 +2342,16 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C111" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D111" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E111">
-        <v>0.2430728892108681</v>
+        <v>0.2479803477567594</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2359,16 +2359,16 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D112" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E112">
-        <v>0.2390457218668788</v>
+        <v>0.2465141928911369</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2376,16 +2376,16 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C113" t="s">
         <v>20</v>
       </c>
       <c r="D113" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E113">
-        <v>0.2381958355615817</v>
+        <v>0.2394876370296741</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2393,16 +2393,16 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D114" t="s">
         <v>28</v>
       </c>
       <c r="E114">
-        <v>0.2380979787440759</v>
+        <v>0.2349021217306901</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2410,16 +2410,16 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C115" t="s">
         <v>18</v>
       </c>
       <c r="D115" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E115">
-        <v>0.2372221054494582</v>
+        <v>0.2337513014900576</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2427,16 +2427,16 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C116" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D116" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E116">
-        <v>0.2364030694673238</v>
+        <v>0.2335387301276407</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2444,16 +2444,16 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D117" t="s">
         <v>27</v>
       </c>
       <c r="E117">
-        <v>0.2360607951118903</v>
+        <v>0.2328303631542916</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2461,16 +2461,16 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C118" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D118" t="s">
         <v>28</v>
       </c>
       <c r="E118">
-        <v>0.2334473165184686</v>
+        <v>0.2321660000619288</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2478,16 +2478,16 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C119" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D119" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E119">
-        <v>0.2332697620936688</v>
+        <v>0.2294255335728059</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2495,16 +2495,16 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C120" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D120" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E120">
-        <v>0.2313546074514028</v>
+        <v>0.2292514694241859</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2512,16 +2512,16 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C121" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D121" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E121">
-        <v>0.230939037599875</v>
+        <v>0.2289527349448126</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2529,16 +2529,16 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C122" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D122" t="s">
         <v>29</v>
       </c>
       <c r="E122">
-        <v>0.2278349021638562</v>
+        <v>0.2277026617795061</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2555,7 +2555,7 @@
         <v>29</v>
       </c>
       <c r="E123">
-        <v>0.2278324716441775</v>
+        <v>0.2269327140594123</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2563,16 +2563,16 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C124" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D124" t="s">
         <v>29</v>
       </c>
       <c r="E124">
-        <v>0.2270287572576809</v>
+        <v>0.2268046289757581</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2583,13 +2583,13 @@
         <v>10</v>
       </c>
       <c r="C125" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D125" t="s">
         <v>29</v>
       </c>
       <c r="E125">
-        <v>0.2266687643099791</v>
+        <v>0.2267915987298337</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2597,16 +2597,16 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C126" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D126" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E126">
-        <v>0.2251994089535055</v>
+        <v>0.2264656719170506</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2614,16 +2614,16 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C127" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D127" t="s">
         <v>29</v>
       </c>
       <c r="E127">
-        <v>0.2238239161728776</v>
+        <v>0.2262742154823425</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -2631,16 +2631,16 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C128" t="s">
         <v>20</v>
       </c>
       <c r="D128" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E128">
-        <v>0.2234891581999316</v>
+        <v>0.2253912172126396</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2651,13 +2651,13 @@
         <v>10</v>
       </c>
       <c r="C129" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D129" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E129">
-        <v>0.2230669332681371</v>
+        <v>0.2250429197478074</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -2665,16 +2665,16 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C130" t="s">
         <v>24</v>
       </c>
       <c r="D130" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E130">
-        <v>0.2224570318053914</v>
+        <v>0.2245603491878084</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2682,16 +2682,16 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C131" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D131" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E131">
-        <v>0.2223646161593014</v>
+        <v>0.223988935938995</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2699,16 +2699,16 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C132" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D132" t="s">
         <v>29</v>
       </c>
       <c r="E132">
-        <v>0.2212479536959297</v>
+        <v>0.2233842448931453</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2716,16 +2716,16 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C133" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D133" t="s">
         <v>29</v>
       </c>
       <c r="E133">
-        <v>0.2208699921441017</v>
+        <v>0.2226850463464351</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -2733,16 +2733,16 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C134" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D134" t="s">
         <v>29</v>
       </c>
       <c r="E134">
-        <v>0.2196631449556448</v>
+        <v>0.2219822950026834</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -2750,16 +2750,16 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C135" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D135" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E135">
-        <v>0.2194606974419011</v>
+        <v>0.2211997060190677</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -2770,13 +2770,13 @@
         <v>10</v>
       </c>
       <c r="C136" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D136" t="s">
         <v>29</v>
       </c>
       <c r="E136">
-        <v>0.219235240945668</v>
+        <v>0.221167025334345</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -2787,13 +2787,13 @@
         <v>10</v>
       </c>
       <c r="C137" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D137" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E137">
-        <v>0.2187017007662574</v>
+        <v>0.2208132814431982</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -2804,13 +2804,13 @@
         <v>16</v>
       </c>
       <c r="C138" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D138" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E138">
-        <v>0.2183247832043586</v>
+        <v>0.2192759653751677</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -2818,16 +2818,16 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C139" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D139" t="s">
         <v>29</v>
       </c>
       <c r="E139">
-        <v>0.218154628170054</v>
+        <v>0.2192707174865841</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -2835,16 +2835,16 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C140" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D140" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E140">
-        <v>0.2180017523105331</v>
+        <v>0.2179595759729163</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -2852,16 +2852,16 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C141" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D141" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E141">
-        <v>0.2170062015636045</v>
+        <v>0.2178411688990701</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -2869,16 +2869,16 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C142" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D142" t="s">
         <v>29</v>
       </c>
       <c r="E142">
-        <v>0.2157855333671675</v>
+        <v>0.2173099689819774</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -2886,16 +2886,16 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C143" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D143" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E143">
-        <v>0.2151069220070645</v>
+        <v>0.2171743340792378</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -2903,16 +2903,16 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
         <v>22</v>
       </c>
       <c r="D144" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E144">
-        <v>0.2142135520629961</v>
+        <v>0.2162838678325174</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -2920,16 +2920,16 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C145" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D145" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E145">
-        <v>0.2125427023127953</v>
+        <v>0.2154937565348507</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -2937,16 +2937,16 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C146" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D146" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E146">
-        <v>0.2125422594056077</v>
+        <v>0.2154530391865341</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -2954,16 +2954,16 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C147" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D147" t="s">
         <v>29</v>
       </c>
       <c r="E147">
-        <v>0.2125320175238601</v>
+        <v>0.2152091406660061</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -2971,16 +2971,16 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
         <v>24</v>
       </c>
       <c r="D148" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E148">
-        <v>0.2108530682571222</v>
+        <v>0.2119195528853241</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -2988,16 +2988,16 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C149" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D149" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E149">
-        <v>0.2098275556065071</v>
+        <v>0.2117931796650865</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -3005,16 +3005,16 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C150" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D150" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E150">
-        <v>0.2095545834794971</v>
+        <v>0.2112457016137943</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -3022,7 +3022,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C151" t="s">
         <v>23</v>
@@ -3031,7 +3031,7 @@
         <v>29</v>
       </c>
       <c r="E151">
-        <v>0.2083429042104125</v>
+        <v>0.2101231803828645</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -3039,16 +3039,16 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C152" t="s">
         <v>22</v>
       </c>
       <c r="D152" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E152">
-        <v>0.208237811696457</v>
+        <v>0.2096471269481693</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3056,16 +3056,16 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C153" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D153" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E153">
-        <v>0.2082344301896551</v>
+        <v>0.2076033661170859</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3073,16 +3073,16 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C154" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D154" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E154">
-        <v>0.2044769634871254</v>
+        <v>0.2071135734655763</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3090,16 +3090,16 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C155" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D155" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E155">
-        <v>0.204240835617284</v>
+        <v>0.2069221984595506</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3110,13 +3110,13 @@
         <v>17</v>
       </c>
       <c r="C156" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D156" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E156">
-        <v>0.2037689015969167</v>
+        <v>0.2063133477959927</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3124,16 +3124,16 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C157" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D157" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E157">
-        <v>0.203385351382752</v>
+        <v>0.2051655635352427</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3141,16 +3141,16 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C158" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D158" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E158">
-        <v>0.2031784607583108</v>
+        <v>0.2035369169843651</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3158,16 +3158,16 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C159" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D159" t="s">
         <v>29</v>
       </c>
       <c r="E159">
-        <v>0.202189655220358</v>
+        <v>0.2034205531970246</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3175,16 +3175,16 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C160" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D160" t="s">
         <v>29</v>
       </c>
       <c r="E160">
-        <v>0.201918244335405</v>
+        <v>0.2032982550058242</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3192,16 +3192,16 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C161" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D161" t="s">
         <v>29</v>
       </c>
       <c r="E161">
-        <v>0.2016155741930479</v>
+        <v>0.2029685262791042</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3209,16 +3209,16 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C162" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D162" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E162">
-        <v>0.2008367365210503</v>
+        <v>0.2028713650474884</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3226,16 +3226,16 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C163" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D163" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E163">
-        <v>0.2007686473579738</v>
+        <v>0.2002297774398191</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3243,16 +3243,16 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C164" t="s">
         <v>20</v>
       </c>
       <c r="D164" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E164">
-        <v>0.2000675390208536</v>
+        <v>0.2000000000000001</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3260,16 +3260,16 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C165" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D165" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E165">
-        <v>0.2000260789097908</v>
+        <v>0.1976266308120243</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3280,13 +3280,13 @@
         <v>17</v>
       </c>
       <c r="C166" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D166" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E166">
-        <v>0.1984800484229572</v>
+        <v>0.1957655442566419</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3294,16 +3294,16 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C167" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D167" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E167">
-        <v>0.1976848259903719</v>
+        <v>0.1957115757174899</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3311,16 +3311,16 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C168" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D168" t="s">
         <v>27</v>
       </c>
       <c r="E168">
-        <v>0.1974000670411014</v>
+        <v>0.1950516192000797</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -3328,16 +3328,16 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C169" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D169" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E169">
-        <v>0.1952467873837472</v>
+        <v>0.1950133580679967</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -3345,16 +3345,16 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C170" t="s">
         <v>22</v>
       </c>
       <c r="D170" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E170">
-        <v>0.1939069857033036</v>
+        <v>0.1940314604206934</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3362,16 +3362,16 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C171" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D171" t="s">
         <v>28</v>
       </c>
       <c r="E171">
-        <v>0.1938663663943558</v>
+        <v>0.1930217766489598</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -3379,16 +3379,16 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C172" t="s">
         <v>25</v>
       </c>
       <c r="D172" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E172">
-        <v>0.1936717443915307</v>
+        <v>0.1928396073402332</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -3396,16 +3396,16 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C173" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D173" t="s">
         <v>27</v>
       </c>
       <c r="E173">
-        <v>0.1932904087835383</v>
+        <v>0.1928274182508507</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -3413,16 +3413,16 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C174" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D174" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E174">
-        <v>0.1930928870036867</v>
+        <v>0.1881465679768373</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -3433,13 +3433,13 @@
         <v>17</v>
       </c>
       <c r="C175" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D175" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E175">
-        <v>0.1928812204342664</v>
+        <v>0.1855454482401137</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -3447,16 +3447,16 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C176" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D176" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E176">
-        <v>0.19024613422437</v>
+        <v>0.1832230886297288</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -3467,13 +3467,13 @@
         <v>14</v>
       </c>
       <c r="C177" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D177" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E177">
-        <v>0.1892269158824961</v>
+        <v>0.18269909448896</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -3481,16 +3481,16 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C178" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D178" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E178">
-        <v>0.1891971422922744</v>
+        <v>0.1818782635417968</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -3498,16 +3498,16 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C179" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D179" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E179">
-        <v>0.1885803815413516</v>
+        <v>0.1810692372922474</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -3515,16 +3515,16 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C180" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D180" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E180">
-        <v>0.187886446792826</v>
+        <v>0.1809500763988332</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -3532,16 +3532,16 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C181" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D181" t="s">
         <v>27</v>
       </c>
       <c r="E181">
-        <v>0.1874377480796449</v>
+        <v>0.1804883983928662</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -3549,16 +3549,16 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C182" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D182" t="s">
         <v>29</v>
       </c>
       <c r="E182">
-        <v>0.1864156805611831</v>
+        <v>0.1785021077792039</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -3566,16 +3566,16 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C183" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D183" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E183">
-        <v>0.1862533831179889</v>
+        <v>0.1781492853011776</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -3583,16 +3583,16 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C184" t="s">
         <v>24</v>
       </c>
       <c r="D184" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E184">
-        <v>0.1818056938361017</v>
+        <v>0.1781492853011776</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -3600,16 +3600,16 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C185" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D185" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E185">
-        <v>0.1791763444041982</v>
+        <v>0.1781492853011776</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -3617,16 +3617,16 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C186" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D186" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E186">
-        <v>0.1773741623373705</v>
+        <v>0.1769928009329154</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -3634,16 +3634,16 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C187" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D187" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E187">
-        <v>0.1771690273584748</v>
+        <v>0.1767914755186392</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -3651,16 +3651,16 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C188" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D188" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E188">
-        <v>0.1762570902378851</v>
+        <v>0.1754807873900419</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -3671,13 +3671,13 @@
         <v>15</v>
       </c>
       <c r="C189" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D189" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E189">
-        <v>0.1754094727219306</v>
+        <v>0.1747860784199252</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -3685,16 +3685,16 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C190" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D190" t="s">
         <v>29</v>
       </c>
       <c r="E190">
-        <v>0.1753412272398049</v>
+        <v>0.174610333489487</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -3702,16 +3702,16 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C191" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D191" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E191">
-        <v>0.1744846891288983</v>
+        <v>0.1743575071395657</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -3719,7 +3719,7 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C192" t="s">
         <v>21</v>
@@ -3728,7 +3728,7 @@
         <v>29</v>
       </c>
       <c r="E192">
-        <v>0.1741646762379662</v>
+        <v>0.1735058642928351</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -3739,13 +3739,13 @@
         <v>6</v>
       </c>
       <c r="C193" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D193" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E193">
-        <v>0.1741163040897306</v>
+        <v>0.1716136856486738</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -3753,7 +3753,7 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C194" t="s">
         <v>25</v>
@@ -3762,7 +3762,7 @@
         <v>29</v>
       </c>
       <c r="E194">
-        <v>0.17319321345116</v>
+        <v>0.1710772610364039</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -3770,16 +3770,16 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C195" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D195" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E195">
-        <v>0.1720551083113477</v>
+        <v>0.1689318359046502</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -3787,16 +3787,16 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C196" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D196" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E196">
-        <v>0.1702854137761445</v>
+        <v>0.168068419237912</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -3804,16 +3804,16 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C197" t="s">
         <v>25</v>
       </c>
       <c r="D197" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E197">
-        <v>0.169791600998557</v>
+        <v>0.1658015747615397</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -3821,16 +3821,16 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C198" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D198" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E198">
-        <v>0.1634001074915802</v>
+        <v>0.1650994252995568</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -3838,16 +3838,16 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C199" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D199" t="s">
         <v>28</v>
       </c>
       <c r="E199">
-        <v>0.1618940314506832</v>
+        <v>0.1623192063132357</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -3855,16 +3855,16 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C200" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D200" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E200">
-        <v>0.1602861567897182</v>
+        <v>0.1612576591848542</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -3872,16 +3872,16 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C201" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D201" t="s">
         <v>27</v>
       </c>
       <c r="E201">
-        <v>0.1551660942912555</v>
+        <v>0.1610372204649082</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -3889,16 +3889,16 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C202" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D202" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E202">
-        <v>0.1547234127055161</v>
+        <v>0.1602059984731258</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -3906,16 +3906,16 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C203" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D203" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E203">
-        <v>0.1537443332330684</v>
+        <v>0.1601884998233612</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -3923,16 +3923,16 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C204" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D204" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E204">
-        <v>0.1529489462156673</v>
+        <v>0.1591066726969737</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -3943,13 +3943,13 @@
         <v>8</v>
       </c>
       <c r="C205" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D205" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E205">
-        <v>0.1527170974780784</v>
+        <v>0.15892230306006</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -3957,16 +3957,16 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C206" t="s">
         <v>24</v>
       </c>
       <c r="D206" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E206">
-        <v>0.1522633906673147</v>
+        <v>0.1554756729076975</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -3974,16 +3974,16 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C207" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D207" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E207">
-        <v>0.1521526982506003</v>
+        <v>0.1548174022879638</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -3994,13 +3994,13 @@
         <v>6</v>
       </c>
       <c r="C208" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D208" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E208">
-        <v>0.1514103715162783</v>
+        <v>0.1539281924433257</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -4008,16 +4008,16 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C209" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D209" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E209">
-        <v>0.1510189653447481</v>
+        <v>0.1532853610484826</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -4025,16 +4025,16 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C210" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D210" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E210">
-        <v>0.1509752237884109</v>
+        <v>0.1521765913957621</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -4042,16 +4042,16 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C211" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D211" t="s">
         <v>29</v>
       </c>
       <c r="E211">
-        <v>0.1500411801921004</v>
+        <v>0.1516517616716485</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -4059,16 +4059,16 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C212" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D212" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E212">
-        <v>0.1494649247128758</v>
+        <v>0.1505462848165493</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -4079,13 +4079,13 @@
         <v>15</v>
       </c>
       <c r="C213" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D213" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E213">
-        <v>0.1486305805251104</v>
+        <v>0.1504239910370669</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -4096,13 +4096,13 @@
         <v>15</v>
       </c>
       <c r="C214" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D214" t="s">
         <v>29</v>
       </c>
       <c r="E214">
-        <v>0.1482600453053114</v>
+        <v>0.1498658128208166</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4110,16 +4110,16 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C215" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D215" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E215">
-        <v>0.146688178763083</v>
+        <v>0.1492489833664407</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -4127,16 +4127,16 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C216" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D216" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E216">
-        <v>0.1464621353263747</v>
+        <v>0.1487298405111739</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -4144,16 +4144,16 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C217" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D217" t="s">
         <v>29</v>
       </c>
       <c r="E217">
-        <v>0.146201417805197</v>
+        <v>0.1479112346309749</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -4161,16 +4161,16 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C218" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D218" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E218">
-        <v>0.1450313616164164</v>
+        <v>0.147860850709892</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -4178,16 +4178,16 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C219" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D219" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E219">
-        <v>0.1444070715527392</v>
+        <v>0.1468856986474458</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -4198,13 +4198,13 @@
         <v>14</v>
       </c>
       <c r="C220" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D220" t="s">
         <v>26</v>
       </c>
       <c r="E220">
-        <v>0.1442733841277961</v>
+        <v>0.1468050548786759</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -4215,13 +4215,13 @@
         <v>13</v>
       </c>
       <c r="C221" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D221" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E221">
-        <v>0.1428092833828493</v>
+        <v>0.1468050548786759</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -4229,16 +4229,16 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C222" t="s">
         <v>22</v>
       </c>
       <c r="D222" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E222">
-        <v>0.1419634511607339</v>
+        <v>0.1463563725753928</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -4246,16 +4246,16 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C223" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D223" t="s">
         <v>29</v>
       </c>
       <c r="E223">
-        <v>0.1409868063060707</v>
+        <v>0.1463001378516433</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -4263,16 +4263,16 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C224" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D224" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E224">
-        <v>0.1404501136435668</v>
+        <v>0.1455140275043958</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -4280,16 +4280,16 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C225" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D225" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E225">
-        <v>0.1400318714947621</v>
+        <v>0.1439439857367128</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -4297,16 +4297,16 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C226" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D226" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E226">
-        <v>0.1398121028690477</v>
+        <v>0.1438968989061202</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -4314,16 +4314,16 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C227" t="s">
         <v>22</v>
       </c>
       <c r="D227" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E227">
-        <v>0.1393914446652591</v>
+        <v>0.1434467671754933</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -4331,16 +4331,16 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C228" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D228" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E228">
-        <v>0.138855943296281</v>
+        <v>0.1421341893688941</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -4348,16 +4348,16 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C229" t="s">
         <v>25</v>
       </c>
       <c r="D229" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E229">
-        <v>0.1387754467377083</v>
+        <v>0.1417511205306943</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -4365,16 +4365,16 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C230" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D230" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E230">
-        <v>0.1385099645060095</v>
+        <v>0.1417416119451955</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -4382,16 +4382,16 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C231" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D231" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E231">
-        <v>0.137993242383</v>
+        <v>0.1412992832719923</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -4399,16 +4399,16 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C232" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D232" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E232">
-        <v>0.1376969881310411</v>
+        <v>0.141297032885107</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -4416,7 +4416,7 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C233" t="s">
         <v>19</v>
@@ -4425,7 +4425,7 @@
         <v>27</v>
       </c>
       <c r="E233">
-        <v>0.1374159489166044</v>
+        <v>0.1411751952432413</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -4433,16 +4433,16 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C234" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D234" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E234">
-        <v>0.1371408107229711</v>
+        <v>0.1405311712619014</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -4453,13 +4453,13 @@
         <v>6</v>
       </c>
       <c r="C235" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D235" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E235">
-        <v>0.1368315445171191</v>
+        <v>0.1400048957196398</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -4467,16 +4467,16 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C236" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D236" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E236">
-        <v>0.1365083764261846</v>
+        <v>0.1398559342763271</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -4487,13 +4487,13 @@
         <v>13</v>
       </c>
       <c r="C237" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D237" t="s">
         <v>29</v>
       </c>
       <c r="E237">
-        <v>0.1361535972153591</v>
+        <v>0.1393403986510384</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -4501,16 +4501,16 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C238" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D238" t="s">
         <v>29</v>
       </c>
       <c r="E238">
-        <v>0.1352513929664767</v>
+        <v>0.1393372852722548</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -4518,16 +4518,16 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C239" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D239" t="s">
         <v>29</v>
       </c>
       <c r="E239">
-        <v>0.1346956707443133</v>
+        <v>0.1387790569903554</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -4535,16 +4535,16 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C240" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D240" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E240">
-        <v>0.1344621243638852</v>
+        <v>0.1383896846406243</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -4552,16 +4552,16 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C241" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D241" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E241">
-        <v>0.1343009420540386</v>
+        <v>0.1383595832435751</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -4569,16 +4569,16 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C242" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D242" t="s">
         <v>29</v>
       </c>
       <c r="E242">
-        <v>0.1340166543608474</v>
+        <v>0.1382646886977183</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -4586,16 +4586,16 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C243" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D243" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E243">
-        <v>0.1339938962235829</v>
+        <v>0.1368774223192207</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -4603,16 +4603,16 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C244" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D244" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E244">
-        <v>0.1338183800053956</v>
+        <v>0.1365605667851593</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -4623,13 +4623,13 @@
         <v>15</v>
       </c>
       <c r="C245" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D245" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E245">
-        <v>0.1332056347049536</v>
+        <v>0.1363365011084702</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -4637,16 +4637,16 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C246" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D246" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E246">
-        <v>0.1325594849954508</v>
+        <v>0.1357501628892145</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -4654,16 +4654,16 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C247" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D247" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E247">
-        <v>0.1319514386143148</v>
+        <v>0.1354584560468274</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -4671,16 +4671,16 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C248" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D248" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E248">
-        <v>0.1318914554884294</v>
+        <v>0.1354103282062736</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -4688,16 +4688,16 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C249" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D249" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E249">
-        <v>0.1305936411861543</v>
+        <v>0.1350394018542099</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -4708,13 +4708,13 @@
         <v>7</v>
       </c>
       <c r="C250" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D250" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E250">
-        <v>0.1305105542235268</v>
+        <v>0.1331444137830999</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -4722,16 +4722,16 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C251" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D251" t="s">
         <v>27</v>
       </c>
       <c r="E251">
-        <v>0.1301051179120962</v>
+        <v>0.1328113949295958</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -4739,16 +4739,16 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C252" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D252" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E252">
-        <v>0.1298559964509699</v>
+        <v>0.1325162353499839</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -4756,16 +4756,16 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C253" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D253" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E253">
-        <v>0.1296637381876767</v>
+        <v>0.132186908403583</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -4773,16 +4773,16 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C254" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D254" t="s">
         <v>29</v>
       </c>
       <c r="E254">
-        <v>0.1281056849045281</v>
+        <v>0.1317317677198423</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -4790,7 +4790,7 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C255" t="s">
         <v>20</v>
@@ -4799,7 +4799,7 @@
         <v>29</v>
       </c>
       <c r="E255">
-        <v>0.1273158587933935</v>
+        <v>0.1315664849593882</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -4807,16 +4807,16 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C256" t="s">
         <v>18</v>
       </c>
       <c r="D256" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E256">
-        <v>0.1270406109710357</v>
+        <v>0.1313142576676014</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -4824,16 +4824,16 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C257" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D257" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E257">
-        <v>0.1269798407251336</v>
+        <v>0.1309943585006596</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -4841,16 +4841,16 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C258" t="s">
         <v>19</v>
       </c>
       <c r="D258" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E258">
-        <v>0.1261973754200187</v>
+        <v>0.1306530169778132</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -4858,16 +4858,16 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C259" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D259" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E259">
-        <v>0.1261592785043677</v>
+        <v>0.1302533937093863</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -4875,16 +4875,16 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C260" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D260" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E260">
-        <v>0.1257671794549179</v>
+        <v>0.1292975187927012</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -4892,16 +4892,16 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C261" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D261" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E261">
-        <v>0.1252862364733776</v>
+        <v>0.1274411401440853</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -4909,16 +4909,16 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C262" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D262" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E262">
-        <v>0.1250385573968622</v>
+        <v>0.1274253886116714</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -4926,16 +4926,16 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C263" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D263" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E263">
-        <v>0.1249363081883401</v>
+        <v>0.1271980208976183</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -4943,16 +4943,16 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C264" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D264" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E264">
-        <v>0.1244545725588447</v>
+        <v>0.1266974533046642</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -4960,16 +4960,16 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C265" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D265" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E265">
-        <v>0.1231784220950773</v>
+        <v>0.1263117958906538</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -4977,16 +4977,16 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C266" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D266" t="s">
         <v>29</v>
       </c>
       <c r="E266">
-        <v>0.1230463875726133</v>
+        <v>0.1261879555300668</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -4994,16 +4994,16 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C267" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D267" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E267">
-        <v>0.122558506123514</v>
+        <v>0.1251708740334664</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -5011,16 +5011,16 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C268" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D268" t="s">
         <v>29</v>
       </c>
       <c r="E268">
-        <v>0.1224591707840145</v>
+        <v>0.1247606500666473</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -5028,16 +5028,16 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C269" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D269" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E269">
-        <v>0.1212817468328869</v>
+        <v>0.1244762717734593</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -5045,16 +5045,16 @@
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C270" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D270" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E270">
-        <v>0.1209798525696103</v>
+        <v>0.123589863766255</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -5062,16 +5062,16 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C271" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D271" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E271">
-        <v>0.120692808802081</v>
+        <v>0.1226380658146403</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -5079,16 +5079,16 @@
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C272" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D272" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E272">
-        <v>0.1202871356824635</v>
+        <v>0.1221891953884722</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -5099,13 +5099,13 @@
         <v>6</v>
       </c>
       <c r="C273" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D273" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E273">
-        <v>0.1195695424552853</v>
+        <v>0.122139701090855</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -5113,16 +5113,16 @@
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C274" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D274" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E274">
-        <v>0.1194782441191488</v>
+        <v>0.1220030814715133</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -5130,16 +5130,16 @@
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C275" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D275" t="s">
         <v>29</v>
       </c>
       <c r="E275">
-        <v>0.1186723011397689</v>
+        <v>0.1214701939426397</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -5147,16 +5147,16 @@
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C276" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D276" t="s">
         <v>27</v>
       </c>
       <c r="E276">
-        <v>0.1181854611355636</v>
+        <v>0.1213209899444907</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -5164,16 +5164,16 @@
         <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C277" t="s">
         <v>21</v>
       </c>
       <c r="D277" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E277">
-        <v>0.1180986480739344</v>
+        <v>0.1210382870179398</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -5181,16 +5181,16 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C278" t="s">
         <v>21</v>
       </c>
       <c r="D278" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E278">
-        <v>0.1174203812172505</v>
+        <v>0.1209000860942086</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -5201,13 +5201,13 @@
         <v>14</v>
       </c>
       <c r="C279" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D279" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E279">
-        <v>0.1173517994660255</v>
+        <v>0.1208923025857563</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -5215,7 +5215,7 @@
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C280" t="s">
         <v>24</v>
@@ -5224,7 +5224,7 @@
         <v>27</v>
       </c>
       <c r="E280">
-        <v>0.1173513426801817</v>
+        <v>0.1208660109592017</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -5232,16 +5232,16 @@
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C281" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D281" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E281">
-        <v>0.1172828987396074</v>
+        <v>0.1207214241922388</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -5249,16 +5249,16 @@
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C282" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D282" t="s">
         <v>29</v>
       </c>
       <c r="E282">
-        <v>0.1167252351124155</v>
+        <v>0.1204632923990829</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -5266,16 +5266,16 @@
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C283" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D283" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E283">
-        <v>0.114817326614221</v>
+        <v>0.1191616775825574</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -5283,16 +5283,16 @@
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C284" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D284" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E284">
-        <v>0.1145819727852029</v>
+        <v>0.1183816845674008</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -5303,13 +5303,13 @@
         <v>7</v>
       </c>
       <c r="C285" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D285" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E285">
-        <v>0.1142744052353549</v>
+        <v>0.1177626389182794</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -5317,16 +5317,16 @@
         <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C286" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D286" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E286">
-        <v>0.1141018337141615</v>
+        <v>0.1173554794724223</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -5334,16 +5334,16 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C287" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D287" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E287">
-        <v>0.1139357885644839</v>
+        <v>0.1170890733893095</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -5351,16 +5351,16 @@
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C288" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D288" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E288">
-        <v>0.1137487933046614</v>
+        <v>0.1164525805835568</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -5368,16 +5368,16 @@
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C289" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D289" t="s">
         <v>27</v>
       </c>
       <c r="E289">
-        <v>0.1136013435029127</v>
+        <v>0.1154339631654554</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -5385,16 +5385,16 @@
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C290" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D290" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E290">
-        <v>0.113170687250681</v>
+        <v>0.1153101365563067</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -5402,16 +5402,16 @@
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C291" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D291" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E291">
-        <v>0.1122777736472845</v>
+        <v>0.1153081975932502</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -5419,16 +5419,16 @@
         <v>291</v>
       </c>
       <c r="B292" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C292" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D292" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E292">
-        <v>0.1117475390669186</v>
+        <v>0.1147999003806971</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -5436,16 +5436,16 @@
         <v>292</v>
       </c>
       <c r="B293" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C293" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D293" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E293">
-        <v>0.1117475390669186</v>
+        <v>0.1139484012133842</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -5453,16 +5453,16 @@
         <v>293</v>
       </c>
       <c r="B294" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C294" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D294" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E294">
-        <v>0.1117475390669186</v>
+        <v>0.1135605170333236</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -5470,16 +5470,16 @@
         <v>294</v>
       </c>
       <c r="B295" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C295" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D295" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E295">
-        <v>0.1115008180796557</v>
+        <v>0.1123680902922353</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -5487,16 +5487,16 @@
         <v>295</v>
       </c>
       <c r="B296" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C296" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D296" t="s">
         <v>29</v>
       </c>
       <c r="E296">
-        <v>0.1109809613513195</v>
+        <v>0.1123659128938912</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -5504,16 +5504,16 @@
         <v>296</v>
       </c>
       <c r="B297" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C297" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D297" t="s">
         <v>28</v>
       </c>
       <c r="E297">
-        <v>0.1102194973491893</v>
+        <v>0.1115115794256332</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -5521,16 +5521,16 @@
         <v>297</v>
       </c>
       <c r="B298" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C298" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D298" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E298">
-        <v>0.1098681242232502</v>
+        <v>0.1112342062545359</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -5538,16 +5538,16 @@
         <v>298</v>
       </c>
       <c r="B299" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C299" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D299" t="s">
         <v>26</v>
       </c>
       <c r="E299">
-        <v>0.1095499411821278</v>
+        <v>0.1105009494254291</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -5555,16 +5555,16 @@
         <v>299</v>
       </c>
       <c r="B300" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C300" t="s">
         <v>23</v>
       </c>
       <c r="D300" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E300">
-        <v>0.109485219607531</v>
+        <v>0.1104049600340987</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -5575,13 +5575,13 @@
         <v>7</v>
       </c>
       <c r="C301" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D301" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E301">
-        <v>0.1091910741837322</v>
+        <v>0.109566181111597</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -5589,16 +5589,16 @@
         <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C302" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D302" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E302">
-        <v>0.1091452110804953</v>
+        <v>0.1089144041522246</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -5612,10 +5612,10 @@
         <v>21</v>
       </c>
       <c r="D303" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E303">
-        <v>0.1090459994136901</v>
+        <v>0.1079414268687141</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -5623,16 +5623,16 @@
         <v>303</v>
       </c>
       <c r="B304" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C304" t="s">
         <v>20</v>
       </c>
       <c r="D304" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E304">
-        <v>0.1087003724968071</v>
+        <v>0.1079250870605214</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -5643,13 +5643,13 @@
         <v>7</v>
       </c>
       <c r="C305" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D305" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E305">
-        <v>0.1083948146425736</v>
+        <v>0.1071215248978701</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -5660,13 +5660,13 @@
         <v>11</v>
       </c>
       <c r="C306" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D306" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E306">
-        <v>0.1077684933856655</v>
+        <v>0.1067631015900753</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -5674,16 +5674,16 @@
         <v>306</v>
       </c>
       <c r="B307" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C307" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D307" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E307">
-        <v>0.1072500536250404</v>
+        <v>0.1066108996430005</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -5691,16 +5691,16 @@
         <v>307</v>
       </c>
       <c r="B308" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C308" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D308" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E308">
-        <v>0.1072403425961243</v>
+        <v>0.1052759803705865</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -5708,16 +5708,16 @@
         <v>308</v>
       </c>
       <c r="B309" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C309" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D309" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E309">
-        <v>0.107110783201409</v>
+        <v>0.1043855243716111</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -5725,16 +5725,16 @@
         <v>309</v>
       </c>
       <c r="B310" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C310" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D310" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E310">
-        <v>0.1068253616602665</v>
+        <v>0.1043782547344458</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -5745,13 +5745,13 @@
         <v>11</v>
       </c>
       <c r="C311" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D311" t="s">
         <v>29</v>
       </c>
       <c r="E311">
-        <v>0.1058575477728878</v>
+        <v>0.1041759022923051</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -5759,16 +5759,16 @@
         <v>311</v>
       </c>
       <c r="B312" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C312" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D312" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E312">
-        <v>0.1049752063671511</v>
+        <v>0.1034008122988458</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -5779,13 +5779,13 @@
         <v>14</v>
       </c>
       <c r="C313" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D313" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E313">
-        <v>0.1024086726824597</v>
+        <v>0.1031016989569953</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -5793,16 +5793,16 @@
         <v>313</v>
       </c>
       <c r="B314" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C314" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D314" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E314">
-        <v>0.101750846463777</v>
+        <v>0.1027216357081307</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -5810,16 +5810,16 @@
         <v>314</v>
       </c>
       <c r="B315" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C315" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D315" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E315">
-        <v>0.09964574713018805</v>
+        <v>0.101717155884853</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -5827,16 +5827,16 @@
         <v>315</v>
       </c>
       <c r="B316" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C316" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D316" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E316">
-        <v>0.09794636281179984</v>
+        <v>0.1016376568838576</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -5844,16 +5844,16 @@
         <v>316</v>
       </c>
       <c r="B317" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C317" t="s">
         <v>22</v>
       </c>
       <c r="D317" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E317">
-        <v>0.09793414021861162</v>
+        <v>0.1009156826804519</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -5861,16 +5861,16 @@
         <v>317</v>
       </c>
       <c r="B318" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C318" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D318" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E318">
-        <v>0.09762986237485891</v>
+        <v>0.1008586121971015</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -5878,16 +5878,16 @@
         <v>318</v>
       </c>
       <c r="B319" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C319" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D319" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E319">
-        <v>0.09535351500437964</v>
+        <v>0.09944478166338948</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -5895,16 +5895,16 @@
         <v>319</v>
       </c>
       <c r="B320" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C320" t="s">
         <v>24</v>
       </c>
       <c r="D320" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E320">
-        <v>0.09528138177197164</v>
+        <v>0.09926185477637098</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -5912,16 +5912,16 @@
         <v>320</v>
       </c>
       <c r="B321" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C321" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D321" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E321">
-        <v>0.09507261166196194</v>
+        <v>0.09895802824952213</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -5929,16 +5929,16 @@
         <v>321</v>
       </c>
       <c r="B322" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C322" t="s">
         <v>22</v>
       </c>
       <c r="D322" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E322">
-        <v>0.09323794647404067</v>
+        <v>0.09874783596099153</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -5946,16 +5946,16 @@
         <v>322</v>
       </c>
       <c r="B323" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C323" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D323" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E323">
-        <v>0.0930484210398473</v>
+        <v>0.09766095913147073</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -5963,16 +5963,16 @@
         <v>323</v>
       </c>
       <c r="B324" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C324" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D324" t="s">
         <v>28</v>
       </c>
       <c r="E324">
-        <v>0.0930484210398473</v>
+        <v>0.09752248519591014</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -5980,16 +5980,16 @@
         <v>324</v>
       </c>
       <c r="B325" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C325" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D325" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E325">
-        <v>0.09239502633157727</v>
+        <v>0.09691101937168478</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -6000,13 +6000,13 @@
         <v>13</v>
       </c>
       <c r="C326" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D326" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E326">
-        <v>0.09236042801759002</v>
+        <v>0.09621380273952257</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -6014,16 +6014,16 @@
         <v>326</v>
       </c>
       <c r="B327" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C327" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D327" t="s">
         <v>27</v>
       </c>
       <c r="E327">
-        <v>0.09121514624388667</v>
+        <v>0.09533647511028799</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -6031,16 +6031,16 @@
         <v>327</v>
       </c>
       <c r="B328" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C328" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D328" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E328">
-        <v>0.09075309409862356</v>
+        <v>0.09445629245111836</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -6048,7 +6048,7 @@
         <v>328</v>
       </c>
       <c r="B329" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C329" t="s">
         <v>22</v>
@@ -6057,7 +6057,7 @@
         <v>27</v>
       </c>
       <c r="E329">
-        <v>0.08970737286699251</v>
+        <v>0.09416527213833852</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -6071,10 +6071,10 @@
         <v>25</v>
       </c>
       <c r="D330" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E330">
-        <v>0.0895845237876623</v>
+        <v>0.0936437607042145</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -6082,16 +6082,16 @@
         <v>330</v>
       </c>
       <c r="B331" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C331" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D331" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E331">
-        <v>0.08950505598611425</v>
+        <v>0.09304244187724582</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -6099,16 +6099,16 @@
         <v>331</v>
       </c>
       <c r="B332" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C332" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D332" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E332">
-        <v>0.08910918387082252</v>
+        <v>0.09262341253651059</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -6116,16 +6116,16 @@
         <v>332</v>
       </c>
       <c r="B333" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C333" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D333" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E333">
-        <v>0.08868054001128849</v>
+        <v>0.09163092590879675</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -6133,16 +6133,16 @@
         <v>333</v>
       </c>
       <c r="B334" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C334" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D334" t="s">
         <v>27</v>
       </c>
       <c r="E334">
-        <v>0.08806712572167913</v>
+        <v>0.09151272346786252</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -6153,13 +6153,13 @@
         <v>13</v>
       </c>
       <c r="C335" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D335" t="s">
         <v>27</v>
       </c>
       <c r="E335">
-        <v>0.08593018816583275</v>
+        <v>0.0910977328512303</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -6167,16 +6167,16 @@
         <v>335</v>
       </c>
       <c r="B336" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C336" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D336" t="s">
         <v>28</v>
       </c>
       <c r="E336">
-        <v>0.08570224781300825</v>
+        <v>0.09081228206053205</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -6184,16 +6184,16 @@
         <v>336</v>
       </c>
       <c r="B337" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C337" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D337" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E337">
-        <v>0.08522070130859127</v>
+        <v>0.09077605797086531</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -6201,16 +6201,16 @@
         <v>337</v>
       </c>
       <c r="B338" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C338" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D338" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E338">
-        <v>0.08490242960718876</v>
+        <v>0.08454950464837976</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -6221,13 +6221,13 @@
         <v>11</v>
       </c>
       <c r="C339" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D339" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E339">
-        <v>0.08442988301749593</v>
+        <v>0.08282160288349143</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -6235,16 +6235,16 @@
         <v>339</v>
       </c>
       <c r="B340" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C340" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D340" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E340">
-        <v>0.08425809537325213</v>
+        <v>0.08132913765139474</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -6252,16 +6252,16 @@
         <v>340</v>
       </c>
       <c r="B341" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C341" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D341" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E341">
-        <v>0.08340923753833561</v>
+        <v>0.07983590444812518</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -6269,16 +6269,16 @@
         <v>341</v>
       </c>
       <c r="B342" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C342" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D342" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E342">
-        <v>0.08326555644496941</v>
+        <v>0.07970038316683943</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -6286,16 +6286,16 @@
         <v>342</v>
       </c>
       <c r="B343" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C343" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D343" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E343">
-        <v>0.08207054500298459</v>
+        <v>0.07931958026364361</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -6306,13 +6306,13 @@
         <v>8</v>
       </c>
       <c r="C344" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D344" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E344">
-        <v>0.08163616230515637</v>
+        <v>0.07920963082027831</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -6320,16 +6320,16 @@
         <v>344</v>
       </c>
       <c r="B345" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C345" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D345" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E345">
-        <v>0.08118847489943316</v>
+        <v>0.07857261257050423</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -6337,16 +6337,16 @@
         <v>345</v>
       </c>
       <c r="B346" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C346" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D346" t="s">
         <v>27</v>
       </c>
       <c r="E346">
-        <v>0.08066439954618219</v>
+        <v>0.07791172295839247</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -6354,16 +6354,16 @@
         <v>346</v>
       </c>
       <c r="B347" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C347" t="s">
         <v>20</v>
       </c>
       <c r="D347" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E347">
-        <v>0.08012108449851266</v>
+        <v>0.07581087862420287</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -6371,16 +6371,16 @@
         <v>347</v>
       </c>
       <c r="B348" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C348" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D348" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E348">
-        <v>0.07918116211850833</v>
+        <v>0.07573051842499899</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -6388,16 +6388,16 @@
         <v>348</v>
       </c>
       <c r="B349" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C349" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D349" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E349">
-        <v>0.07560546439898008</v>
+        <v>0.07562409563906693</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -6405,16 +6405,16 @@
         <v>349</v>
       </c>
       <c r="B350" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C350" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D350" t="s">
         <v>29</v>
       </c>
       <c r="E350">
-        <v>0.07512581245615449</v>
+        <v>0.07392646406445233</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -6422,16 +6422,16 @@
         <v>350</v>
       </c>
       <c r="B351" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C351" t="s">
         <v>23</v>
       </c>
       <c r="D351" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E351">
-        <v>0.07473999071588798</v>
+        <v>0.07389520952425556</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -6439,16 +6439,16 @@
         <v>351</v>
       </c>
       <c r="B352" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C352" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D352" t="s">
         <v>27</v>
       </c>
       <c r="E352">
-        <v>0.07436637027010029</v>
+        <v>0.07364628489639612</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -6456,16 +6456,16 @@
         <v>352</v>
       </c>
       <c r="B353" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C353" t="s">
         <v>23</v>
       </c>
       <c r="D353" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E353">
-        <v>0.07396727393737919</v>
+        <v>0.07286399183357906</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -6473,16 +6473,16 @@
         <v>353</v>
       </c>
       <c r="B354" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C354" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D354" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E354">
-        <v>0.07374519429786157</v>
+        <v>0.07152552326429924</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -6493,13 +6493,13 @@
         <v>14</v>
       </c>
       <c r="C355" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D355" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E355">
-        <v>0.07226288134874376</v>
+        <v>0.06971281149808339</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -6507,16 +6507,16 @@
         <v>355</v>
       </c>
       <c r="B356" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C356" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D356" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E356">
-        <v>0.07179683678342592</v>
+        <v>0.06908512681041276</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -6524,16 +6524,16 @@
         <v>356</v>
       </c>
       <c r="B357" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C357" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D357" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E357">
-        <v>0.06974647705029247</v>
+        <v>0.06847964454254396</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -6541,16 +6541,16 @@
         <v>357</v>
       </c>
       <c r="B358" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C358" t="s">
         <v>21</v>
       </c>
       <c r="D358" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E358">
-        <v>0.06858158197798489</v>
+        <v>0.06796741827924309</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -6558,16 +6558,16 @@
         <v>358</v>
       </c>
       <c r="B359" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C359" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D359" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E359">
-        <v>0.06844239359812994</v>
+        <v>0.06692194962412058</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -6575,16 +6575,16 @@
         <v>359</v>
       </c>
       <c r="B360" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C360" t="s">
         <v>24</v>
       </c>
       <c r="D360" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E360">
-        <v>0.06827659397852154</v>
+        <v>0.06646201695755737</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -6595,13 +6595,13 @@
         <v>14</v>
       </c>
       <c r="C361" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D361" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E361">
-        <v>0.06727173739011678</v>
+        <v>0.06418662308153392</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -6609,16 +6609,16 @@
         <v>361</v>
       </c>
       <c r="B362" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C362" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D362" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E362">
-        <v>0.06704753504776574</v>
+        <v>0.06390285575623726</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -6626,16 +6626,16 @@
         <v>362</v>
       </c>
       <c r="B363" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C363" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D363" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E363">
-        <v>0.06646976671150577</v>
+        <v>0.06284520917653728</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -6646,13 +6646,13 @@
         <v>14</v>
       </c>
       <c r="C364" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D364" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E364">
-        <v>0.06588824072866924</v>
+        <v>0.06272907860797347</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -6660,16 +6660,16 @@
         <v>364</v>
       </c>
       <c r="B365" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C365" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D365" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E365">
-        <v>0.06521979267356964</v>
+        <v>0.06128716545872981</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -6677,16 +6677,16 @@
         <v>365</v>
       </c>
       <c r="B366" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C366" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D366" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E366">
-        <v>0.05821161251281008</v>
+        <v>0.05763110708594742</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -6694,16 +6694,16 @@
         <v>366</v>
       </c>
       <c r="B367" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C367" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D367" t="s">
         <v>27</v>
       </c>
       <c r="E367">
-        <v>0.05724599223496062</v>
+        <v>0.05698556630571238</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -6714,13 +6714,13 @@
         <v>14</v>
       </c>
       <c r="C368" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D368" t="s">
         <v>27</v>
       </c>
       <c r="E368">
-        <v>0.0567941644445743</v>
+        <v>0.0534748474164278</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -6728,16 +6728,16 @@
         <v>368</v>
       </c>
       <c r="B369" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C369" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D369" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E369">
-        <v>0.0550183676231295</v>
+        <v>0.05108214599983869</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -6745,16 +6745,16 @@
         <v>369</v>
       </c>
       <c r="B370" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C370" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D370" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E370">
-        <v>0.05238787864790791</v>
+        <v>0.04140257790737338</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -6762,16 +6762,16 @@
         <v>370</v>
       </c>
       <c r="B371" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C371" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D371" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E371">
-        <v>0.04695370665316909</v>
+        <v>0.03707071997795675</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -6779,16 +6779,16 @@
         <v>371</v>
       </c>
       <c r="B372" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C372" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D372" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E372">
-        <v>0.04581160408365088</v>
+        <v>0.02884769272637195</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -6796,16 +6796,16 @@
         <v>372</v>
       </c>
       <c r="B373" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C373" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D373" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E373">
-        <v>0.04549795258529961</v>
+        <v>0.02696095251981288</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -6813,16 +6813,16 @@
         <v>373</v>
       </c>
       <c r="B374" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C374" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D374" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E374">
-        <v>0.04235111720982575</v>
+        <v>0.02396940945836346</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -6830,16 +6830,16 @@
         <v>374</v>
       </c>
       <c r="B375" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C375" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D375" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E375">
-        <v>0.03388491006676149</v>
+        <v>0.02394965182864291</v>
       </c>
     </row>
     <row r="376" spans="1:5">
@@ -6847,16 +6847,16 @@
         <v>375</v>
       </c>
       <c r="B376" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C376" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D376" t="s">
         <v>26</v>
       </c>
       <c r="E376">
-        <v>0.03259003997732515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -6864,16 +6864,16 @@
         <v>376</v>
       </c>
       <c r="B377" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C377" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D377" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E377">
-        <v>0.03252765564357349</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -6881,16 +6881,16 @@
         <v>377</v>
       </c>
       <c r="B378" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C378" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D378" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E378">
-        <v>0.03252765564357349</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -6898,16 +6898,16 @@
         <v>378</v>
       </c>
       <c r="B379" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C379" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D379" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E379">
-        <v>0.03252765564357349</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -6915,16 +6915,16 @@
         <v>379</v>
       </c>
       <c r="B380" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C380" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D380" t="s">
         <v>26</v>
       </c>
       <c r="E380">
-        <v>0.02793746809645412</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -6932,16 +6932,16 @@
         <v>380</v>
       </c>
       <c r="B381" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C381" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D381" t="s">
         <v>26</v>
       </c>
       <c r="E381">
-        <v>0.01595948076498537</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -6949,16 +6949,16 @@
         <v>381</v>
       </c>
       <c r="B382" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C382" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D382" t="s">
         <v>26</v>
       </c>
       <c r="E382">
-        <v>0.01016645538468687</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -6966,13 +6966,13 @@
         <v>382</v>
       </c>
       <c r="B383" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C383" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D383" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E383">
         <v>0</v>
@@ -6983,13 +6983,13 @@
         <v>383</v>
       </c>
       <c r="B384" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C384" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D384" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E384">
         <v>0</v>
@@ -7000,13 +7000,13 @@
         <v>384</v>
       </c>
       <c r="B385" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C385" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D385" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E385">
         <v>0</v>
@@ -7017,13 +7017,13 @@
         <v>385</v>
       </c>
       <c r="B386" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C386" t="s">
         <v>21</v>
       </c>
       <c r="D386" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E386">
         <v>0</v>
@@ -7034,13 +7034,13 @@
         <v>386</v>
       </c>
       <c r="B387" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C387" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D387" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E387">
         <v>0</v>
@@ -7051,13 +7051,13 @@
         <v>387</v>
       </c>
       <c r="B388" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C388" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D388" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E388">
         <v>0</v>
@@ -7068,13 +7068,13 @@
         <v>388</v>
       </c>
       <c r="B389" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C389" t="s">
         <v>25</v>
       </c>
       <c r="D389" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E389">
         <v>0</v>
@@ -7085,13 +7085,13 @@
         <v>389</v>
       </c>
       <c r="B390" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C390" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D390" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E390">
         <v>0</v>
@@ -7102,13 +7102,13 @@
         <v>390</v>
       </c>
       <c r="B391" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C391" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D391" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E391">
         <v>0</v>
@@ -7119,13 +7119,13 @@
         <v>391</v>
       </c>
       <c r="B392" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C392" t="s">
         <v>21</v>
       </c>
       <c r="D392" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E392">
         <v>0</v>
@@ -7136,13 +7136,13 @@
         <v>392</v>
       </c>
       <c r="B393" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C393" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D393" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E393">
         <v>0</v>
@@ -7153,13 +7153,13 @@
         <v>393</v>
       </c>
       <c r="B394" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C394" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D394" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E394">
         <v>0</v>
@@ -7170,13 +7170,13 @@
         <v>394</v>
       </c>
       <c r="B395" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C395" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D395" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E395">
         <v>0</v>
@@ -7187,13 +7187,13 @@
         <v>395</v>
       </c>
       <c r="B396" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C396" t="s">
         <v>25</v>
       </c>
       <c r="D396" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E396">
         <v>0</v>
@@ -7204,13 +7204,13 @@
         <v>396</v>
       </c>
       <c r="B397" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C397" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D397" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E397">
         <v>0</v>
@@ -7224,10 +7224,10 @@
         <v>12</v>
       </c>
       <c r="C398" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D398" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E398">
         <v>0</v>
@@ -7238,13 +7238,13 @@
         <v>398</v>
       </c>
       <c r="B399" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C399" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D399" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E399">
         <v>0</v>
@@ -7255,13 +7255,13 @@
         <v>399</v>
       </c>
       <c r="B400" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C400" t="s">
         <v>21</v>
       </c>
       <c r="D400" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E400">
         <v>0</v>
@@ -7272,13 +7272,13 @@
         <v>400</v>
       </c>
       <c r="B401" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C401" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D401" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E401">
         <v>0</v>
@@ -7289,13 +7289,13 @@
         <v>401</v>
       </c>
       <c r="B402" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C402" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D402" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E402">
         <v>0</v>
@@ -7306,13 +7306,13 @@
         <v>402</v>
       </c>
       <c r="B403" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C403" t="s">
         <v>25</v>
       </c>
       <c r="D403" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E403">
         <v>0</v>
@@ -7323,13 +7323,13 @@
         <v>403</v>
       </c>
       <c r="B404" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C404" t="s">
         <v>21</v>
       </c>
       <c r="D404" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E404">
         <v>0</v>
@@ -7340,13 +7340,13 @@
         <v>404</v>
       </c>
       <c r="B405" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C405" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D405" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E405">
         <v>0</v>
@@ -7357,13 +7357,13 @@
         <v>405</v>
       </c>
       <c r="B406" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C406" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D406" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E406">
         <v>0</v>
@@ -7374,13 +7374,13 @@
         <v>406</v>
       </c>
       <c r="B407" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C407" t="s">
         <v>25</v>
       </c>
       <c r="D407" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E407">
         <v>0</v>
@@ -7391,13 +7391,13 @@
         <v>407</v>
       </c>
       <c r="B408" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C408" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D408" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E408">
         <v>0</v>
@@ -7408,13 +7408,13 @@
         <v>408</v>
       </c>
       <c r="B409" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C409" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D409" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E409">
         <v>0</v>
@@ -7425,13 +7425,13 @@
         <v>409</v>
       </c>
       <c r="B410" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C410" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D410" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E410">
         <v>0</v>
@@ -7442,13 +7442,13 @@
         <v>410</v>
       </c>
       <c r="B411" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C411" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D411" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E411">
         <v>0</v>
@@ -7459,13 +7459,13 @@
         <v>411</v>
       </c>
       <c r="B412" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C412" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D412" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E412">
         <v>0</v>
@@ -7476,13 +7476,13 @@
         <v>412</v>
       </c>
       <c r="B413" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C413" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D413" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E413">
         <v>0</v>
@@ -7493,13 +7493,13 @@
         <v>413</v>
       </c>
       <c r="B414" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C414" t="s">
         <v>25</v>
       </c>
       <c r="D414" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E414">
         <v>0</v>
@@ -7510,13 +7510,13 @@
         <v>414</v>
       </c>
       <c r="B415" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C415" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D415" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E415">
         <v>0</v>
@@ -7527,13 +7527,13 @@
         <v>415</v>
       </c>
       <c r="B416" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C416" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D416" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E416">
         <v>0</v>
@@ -7544,13 +7544,13 @@
         <v>416</v>
       </c>
       <c r="B417" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C417" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D417" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E417">
         <v>0</v>
